--- a/Data/Processing/2024-02-02/METROBRAND.xlsx
+++ b/Data/Processing/2024-02-02/METROBRAND.xlsx
@@ -1072,7 +1072,7 @@
         <v>831.64</v>
       </c>
       <c r="E11">
-        <v>838.86</v>
+        <v>838.85</v>
       </c>
       <c r="F11">
         <v>833.23</v>
@@ -1125,7 +1125,7 @@
         <v>827.91</v>
       </c>
       <c r="F12">
-        <v>838.86</v>
+        <v>838.85</v>
       </c>
       <c r="G12">
         <v>186922</v>
@@ -1143,7 +1143,7 @@
         <v>-1.22</v>
       </c>
       <c r="L12">
-        <v>-7.07</v>
+        <v>-7.06</v>
       </c>
       <c r="M12">
         <v>0.75</v>
@@ -2802,7 +2802,7 @@
         <v>1.39</v>
       </c>
       <c r="O45">
-        <v>798.0113636363636</v>
+        <v>798.0111363636363</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>1.69</v>
       </c>
       <c r="O46">
-        <v>799.4527272727274</v>
+        <v>799.4525000000001</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -2902,7 +2902,7 @@
         <v>2.5</v>
       </c>
       <c r="O47">
-        <v>800.3570454545454</v>
+        <v>800.3568181818181</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -2952,7 +2952,7 @@
         <v>2.68</v>
       </c>
       <c r="O48">
-        <v>801.6129545454544</v>
+        <v>801.6127272727274</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>3.39</v>
       </c>
       <c r="O49">
-        <v>802.4225000000001</v>
+        <v>802.4222727272728</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>1.88</v>
       </c>
       <c r="O50">
-        <v>802.7095454545455</v>
+        <v>802.7093181818182</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>7.66</v>
       </c>
       <c r="O51">
-        <v>803.6906818181818</v>
+        <v>803.6904545454546</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>2.92</v>
       </c>
       <c r="O52">
-        <v>804.6550000000002</v>
+        <v>804.6547727272729</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>1.75</v>
       </c>
       <c r="O53">
-        <v>805.3875</v>
+        <v>805.3872727272727</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>2.84</v>
       </c>
       <c r="O54">
-        <v>805.6838636363635</v>
+        <v>805.6836363636362</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>2.68</v>
       </c>
       <c r="O62">
-        <v>815.9768181818181</v>
+        <v>815.9768181818182</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>2.94</v>
       </c>
       <c r="O68">
-        <v>830.2252272727272</v>
+        <v>830.2252272727274</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>2.83</v>
       </c>
       <c r="O70">
-        <v>834.2611363636365</v>
+        <v>834.2611363636363</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>4.64</v>
       </c>
       <c r="O71">
-        <v>837.0193181818181</v>
+        <v>837.0193181818183</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>15.11</v>
       </c>
       <c r="O74">
-        <v>844.3322727272728</v>
+        <v>844.3322727272727</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>5.99</v>
       </c>
       <c r="O75">
-        <v>848.2797727272729</v>
+        <v>848.2797727272726</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>3.99</v>
       </c>
       <c r="O79">
-        <v>864.5718181818181</v>
+        <v>864.5718181818182</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>2.36</v>
       </c>
       <c r="O83">
-        <v>881.8656818181819</v>
+        <v>881.8656818181818</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>2.37</v>
       </c>
       <c r="O89">
-        <v>903.7415909090909</v>
+        <v>903.741590909091</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>1.34</v>
       </c>
       <c r="O90">
-        <v>907.318409090909</v>
+        <v>907.3184090909091</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>4.5</v>
       </c>
       <c r="O91">
-        <v>911.3754545454547</v>
+        <v>911.3754545454544</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>2.7</v>
       </c>
       <c r="O92">
-        <v>915.3536363636365</v>
+        <v>915.3536363636363</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>4.03</v>
       </c>
       <c r="O94">
-        <v>924.6311363636363</v>
+        <v>924.6311363636364</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>939.2059090909092</v>
+        <v>939.205909090909</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>5.46</v>
       </c>
       <c r="O100">
-        <v>940.7806818181817</v>
+        <v>940.780681818182</v>
       </c>
       <c r="P100">
         <v>1</v>
@@ -5602,7 +5602,7 @@
         <v>1.91</v>
       </c>
       <c r="O101">
-        <v>942.8075000000001</v>
+        <v>942.8075</v>
       </c>
       <c r="P101">
         <v>1</v>
@@ -5652,7 +5652,7 @@
         <v>1.78</v>
       </c>
       <c r="O102">
-        <v>944.3245454545456</v>
+        <v>944.3245454545454</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>1.53</v>
       </c>
       <c r="O103">
-        <v>945.8077272727271</v>
+        <v>945.8077272727273</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>2.3</v>
       </c>
       <c r="O107">
-        <v>954.0111363636363</v>
+        <v>954.0111363636365</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>2.66</v>
       </c>
       <c r="O110">
-        <v>963.4402272727272</v>
+        <v>963.4402272727274</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>3.51</v>
       </c>
       <c r="O112">
-        <v>970.6602272727273</v>
+        <v>970.6602272727272</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>3.2</v>
       </c>
       <c r="O115">
-        <v>980.8875</v>
+        <v>980.8874999999999</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>4.03</v>
       </c>
       <c r="O119">
-        <v>995.4361363636363</v>
+        <v>995.4361363636364</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>1.64</v>
       </c>
       <c r="O133">
-        <v>1027.460454545455</v>
+        <v>1027.460454545454</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>1.97</v>
       </c>
       <c r="O140">
-        <v>1036.814545454545</v>
+        <v>1036.814545454546</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -7752,7 +7752,7 @@
         <v>1.91</v>
       </c>
       <c r="O144">
-        <v>1045.111363636364</v>
+        <v>1045.111363636363</v>
       </c>
       <c r="P144">
         <v>1</v>
@@ -8302,7 +8302,7 @@
         <v>3.04</v>
       </c>
       <c r="O155">
-        <v>1060.684545454545</v>
+        <v>1060.684545454546</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -8352,7 +8352,7 @@
         <v>5.86</v>
       </c>
       <c r="O156">
-        <v>1061.342045454545</v>
+        <v>1061.342045454546</v>
       </c>
       <c r="P156">
         <v>1</v>
@@ -9052,7 +9052,7 @@
         <v>1.53</v>
       </c>
       <c r="O170">
-        <v>1085.440454545454</v>
+        <v>1085.440454545455</v>
       </c>
       <c r="P170">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>2.53</v>
       </c>
       <c r="O171">
-        <v>1087.488863636364</v>
+        <v>1087.488863636363</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -10802,7 +10802,7 @@
         <v>2.11</v>
       </c>
       <c r="O205">
-        <v>1237.239545454546</v>
+        <v>1237.239545454545</v>
       </c>
       <c r="P205">
         <v>0</v>
@@ -11959,7 +11959,7 @@
         <v>2.14</v>
       </c>
       <c r="O227">
-        <v>1297.248863636363</v>
+        <v>1297.248863636364</v>
       </c>
       <c r="P227">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>2.39</v>
       </c>
       <c r="O238">
-        <v>1295.236363636364</v>
+        <v>1295.236363636363</v>
       </c>
       <c r="P238">
         <v>0</v>
@@ -13721,7 +13721,7 @@
         <v>3.33</v>
       </c>
       <c r="O244">
-        <v>1267.186363636363</v>
+        <v>1267.186363636364</v>
       </c>
       <c r="P244">
         <v>0</v>
